--- a/biology/Microbiologie/Sphingobacterium_spiritivorum/Sphingobacterium_spiritivorum.xlsx
+++ b/biology/Microbiologie/Sphingobacterium_spiritivorum/Sphingobacterium_spiritivorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphingobacterium spiritivorum est l'espèce-type du genre de bactéries à Gram négatif Sphingobacterium de la famille des Sphingobacteriaceae.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de l'espèce Sphingobacterium spiritivorum est la suivante : spi.ri.ti.vo.rum. L. masc. n. spiritus, l'alcool; N.L. masc. adj. suff. -vorus, dévorant, mangeant; N.L. neut. adj. spiritivorum, dévorant l'alcool, se réfère à la capacité de cet organisme à attaquer hydrolyser l'alcool, produisant de l'acide durant le processus[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'espèce Sphingobacterium spiritivorum est la suivante : spi.ri.ti.vo.rum. L. masc. n. spiritus, l'alcool; N.L. masc. adj. suff. -vorus, dévorant, mangeant; N.L. neut. adj. spiritivorum, dévorant l'alcool, se réfère à la capacité de cet organisme à attaquer hydrolyser l'alcool, produisant de l'acide durant le processus.
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Eiko Yabuuchi, Takichi Kaneko, Ikuya Yano, C. Wayne Moss et Noriko Miyoshi, « Sphingobacterium gen. nov., Sphingobacterium spiritivorum comb. nov., Sphingobacterium multivorum comb. nov., Sphingobacterium mizutae sp. nov., and Flavobacterium indologenes sp. nov.: Glucose-Nonfermenting Gram-Negative Rods in CDC Groups IIK-2 and IIb », International Journal of Systematic Bacteriology, vol. 33, no 3,‎ 1er juillet 1983, p. 580–598 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-33-3-580, lire en ligne)</t>
         </is>
